--- a/biology/Zoologie/Dipsadoboa_duchesnii/Dipsadoboa_duchesnii.xlsx
+++ b/biology/Zoologie/Dipsadoboa_duchesnii/Dipsadoboa_duchesnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa duchesnii est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa duchesnii est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] au Cameroun, en Côte d'Ivoire, au Ghana, en Guinée équatoriale, en République centrafricaine, en République démocratique du Congo (à l'exception du Sud de ce pays), en République du Congo, au Liberia, au Nigeria, en Sierra Leone et au Togo. Sa présence est incertaine au Bénin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, en Côte d'Ivoire, au Ghana, en Guinée équatoriale, en République centrafricaine, en République démocratique du Congo (à l'exception du Sud de ce pays), en République du Congo, au Liberia, au Nigeria, en Sierra Leone et au Togo. Sa présence est incertaine au Bénin.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une partie de la série type de Dipsadomorphus brevirostris est synonyme de Dipsadoboa duchesnii et une autre partie de Dipsadoboa viridis.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1901 : Matériaux pour la faune du Congo batraciens et reptiles nouveaux. Annales du Musée royal du Congo belge, Tervuren, Belgique, vol. 2, p. 7-14.</t>
         </is>
